--- a/biology/Zoologie/Galagidae/Galagidae.xlsx
+++ b/biology/Zoologie/Galagidae/Galagidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galagonidae · Galagos
 Les galagos (Galagidae ou Galagonidae) forment une famille de primates regroupant 11 espèces réparties en quatre genres. Les galagos vivent en Afrique où ils sont assez communs dans certaines régions. Ce sont des mammifères de petite taille. Leurs pattes postérieures sont plus longues que les pattes antérieures. Leurs oreilles sont larges et mobiles. Leur queue est très longue. Ils se déplacent rapidement de branche en branche.
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Commission internationale de nomenclature zoologique a choisi de retenir le terme « Galagidae »  au détriment de « Galagonidae »[1]. Cette première forme a été jugée plus correcte car construite à partir du radical « galag- », issu de l'espèce type Galago senegalensis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Commission internationale de nomenclature zoologique a choisi de retenir le terme « Galagidae »  au détriment de « Galagonidae ». Cette première forme a été jugée plus correcte car construite à partir du radical « galag- », issu de l'espèce type Galago senegalensis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (15 mars 2011)[2] et NCBI  (15 mars 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (15 mars 2011) et NCBI  (15 mars 2011) :
 genre Euoticus Gray, 1863
 genre Galago É. Geoffroy Saint-Hilaire, 1796
 genre Galagoides A. Smith, 1833
